--- a/biology/Zoologie/Atoposauridae/Atoposauridae.xlsx
+++ b/biology/Zoologie/Atoposauridae/Atoposauridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Atoposauridae forment une famille fossile de petits reptiles crocodyliformes néosuchiens semi-aquatiques[2], créé par le paléontologue français Paul Gervais en 1871[1],[3].
-Le nombre de genres regroupés dans ce taxon a fortement varié avec le temps, avant d'être sensiblement réduit lors d'une synthèse phylogénétique réalisée par Jonathan P. Tennant, Philip D. Mannion et Paul Upchurch en 2016, qui ne retiennent que trois genres (cinq espèces) et qui placent les Atoposauridae comme un clade basal au sein des Neosuchia[4].
-Toutes ces espèces ne sont connues qu'en Europe occidentale (France et Allemagne) dans le Jurassique supérieur (Kimméridgien et Tithonien inférieur), à une période estimée entre 157 et 148 Ma (millions d'années)[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Atoposauridae forment une famille fossile de petits reptiles crocodyliformes néosuchiens semi-aquatiques, créé par le paléontologue français Paul Gervais en 1871,.
+Le nombre de genres regroupés dans ce taxon a fortement varié avec le temps, avant d'être sensiblement réduit lors d'une synthèse phylogénétique réalisée par Jonathan P. Tennant, Philip D. Mannion et Paul Upchurch en 2016, qui ne retiennent que trois genres (cinq espèces) et qui placent les Atoposauridae comme un clade basal au sein des Neosuchia.
+Toutes ces espèces ne sont connues qu'en Europe occidentale (France et Allemagne) dans le Jurassique supérieur (Kimméridgien et Tithonien inférieur), à une période estimée entre 157 et 148 Ma (millions d'années).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>† Atoposaurus
 † A. oberndorferi
@@ -522,10 +536,44 @@
 † A. beaumonti
 † A. bavaricus
 † Alligatorium
-† A. meyeri
-Genres précédemment classés parmi les Atoposauridae
-† Brillanceausuchus, classé comme un Paralligatoridae[4]
-† Theriosuchus, polyphylétique, formant deux groupes de néosuchiens évolués[4]
+† A. meyeri</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Atoposauridae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atoposauridae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres et espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genres précédemment classés parmi les Atoposauridae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>† Brillanceausuchus, classé comme un Paralligatoridae
+† Theriosuchus, polyphylétique, formant deux groupes de néosuchiens évolués
 † Aprosuchus
 † Hoplosuchus
 † Knoetschkesuchus
@@ -535,37 +583,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Atoposauridae</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Atoposauridae</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des Crocodyliformes de très petite taille avec une longueur totale entre 13 et 29 centimètres, dont 3,5 et 7,5 pour la longueur du crâne[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -587,15 +604,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Classification</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Position des Atoposauridae au sein des Crocodylomorpha
-Cladogramme des Atoposauridae
-Cladogramme de Tennant et al. (2016)[4]
-Cladogramme de Buscalioni et Sanz (1990)[7]</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des Crocodyliformes de très petite taille avec une longueur totale entre 13 et 29 centimètres, dont 3,5 et 7,5 pour la longueur du crâne.
+</t>
         </is>
       </c>
     </row>
